--- a/input/raw_MH_file.xlsx
+++ b/input/raw_MH_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpatterson\PyProjects\sealed_MH\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsp52\AnacondaProjects\sealed_MH\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FFB468-79E1-413E-9853-20307D92562C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F315E1DE-7B49-40F5-B01B-6C13A0FC9A4E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14148" yWindow="3180" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="751">
   <si>
     <t>number</t>
   </si>
@@ -2518,6 +2518,9 @@
   </si>
   <si>
     <t>F+</t>
+  </si>
+  <si>
+    <t>basic</t>
   </si>
 </sst>
 </file>
@@ -2923,17 +2926,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A256" sqref="A256:XFD256"/>
+      <selection pane="bottomLeft" activeCell="N251" sqref="N251:N255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.77734375" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2980,7 +2983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>1</v>
       </c>
@@ -3024,7 +3027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>2</v>
       </c>
@@ -3062,7 +3065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>3</v>
       </c>
@@ -3100,7 +3103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>4</v>
       </c>
@@ -3138,7 +3141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>5</v>
       </c>
@@ -3176,7 +3179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>6</v>
       </c>
@@ -3220,7 +3223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>7</v>
       </c>
@@ -3258,7 +3261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>8</v>
       </c>
@@ -3296,7 +3299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>9</v>
       </c>
@@ -3340,7 +3343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>10</v>
       </c>
@@ -3378,7 +3381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>11</v>
       </c>
@@ -3416,7 +3419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>12</v>
       </c>
@@ -3454,7 +3457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>13</v>
       </c>
@@ -3498,7 +3501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>14</v>
       </c>
@@ -3542,7 +3545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>15</v>
       </c>
@@ -3586,7 +3589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>16</v>
       </c>
@@ -3630,7 +3633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>17</v>
       </c>
@@ -3674,7 +3677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>18</v>
       </c>
@@ -3718,7 +3721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>19</v>
       </c>
@@ -3762,7 +3765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>20</v>
       </c>
@@ -3800,7 +3803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>21</v>
       </c>
@@ -3844,7 +3847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>22</v>
       </c>
@@ -3882,7 +3885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>23</v>
       </c>
@@ -3920,7 +3923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>24</v>
       </c>
@@ -3964,7 +3967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>25</v>
       </c>
@@ -4008,7 +4011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>26</v>
       </c>
@@ -4049,7 +4052,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>27</v>
       </c>
@@ -4087,7 +4090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>28</v>
       </c>
@@ -4125,7 +4128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>29</v>
       </c>
@@ -4169,7 +4172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>30</v>
       </c>
@@ -4207,7 +4210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>31</v>
       </c>
@@ -4245,7 +4248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>32</v>
       </c>
@@ -4283,7 +4286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>33</v>
       </c>
@@ -4327,7 +4330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>34</v>
       </c>
@@ -4371,7 +4374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>35</v>
       </c>
@@ -4415,7 +4418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>36</v>
       </c>
@@ -4459,7 +4462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>37</v>
       </c>
@@ -4497,7 +4500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>38</v>
       </c>
@@ -4535,7 +4538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>39</v>
       </c>
@@ -4579,7 +4582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>40</v>
       </c>
@@ -4617,7 +4620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>41</v>
       </c>
@@ -4661,7 +4664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>42</v>
       </c>
@@ -4705,7 +4708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>43</v>
       </c>
@@ -4749,7 +4752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>44</v>
       </c>
@@ -4787,7 +4790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>45</v>
       </c>
@@ -4825,7 +4828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>46</v>
       </c>
@@ -4863,7 +4866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>47</v>
       </c>
@@ -4901,7 +4904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>48</v>
       </c>
@@ -4939,7 +4942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>49</v>
       </c>
@@ -4983,7 +4986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C51">
         <v>50</v>
       </c>
@@ -5021,7 +5024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C52">
         <v>51</v>
       </c>
@@ -5065,7 +5068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C53">
         <v>52</v>
       </c>
@@ -5103,7 +5106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C54">
         <v>53</v>
       </c>
@@ -5141,7 +5144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C55">
         <v>54</v>
       </c>
@@ -5185,7 +5188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>55</v>
       </c>
@@ -5229,7 +5232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C57">
         <v>56</v>
       </c>
@@ -5267,7 +5270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C58">
         <v>57</v>
       </c>
@@ -5305,7 +5308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C59">
         <v>58</v>
       </c>
@@ -5349,7 +5352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C60">
         <v>59</v>
       </c>
@@ -5393,7 +5396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C61">
         <v>60</v>
       </c>
@@ -5437,7 +5440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C62">
         <v>61</v>
       </c>
@@ -5475,7 +5478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C63">
         <v>62</v>
       </c>
@@ -5519,7 +5522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C64">
         <v>63</v>
       </c>
@@ -5563,7 +5566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C65">
         <v>64</v>
       </c>
@@ -5601,7 +5604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C66">
         <v>65</v>
       </c>
@@ -5639,7 +5642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>66</v>
       </c>
@@ -5677,7 +5680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C68">
         <v>67</v>
       </c>
@@ -5715,7 +5718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C69">
         <v>68</v>
       </c>
@@ -5759,7 +5762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C70">
         <v>69</v>
       </c>
@@ -5797,7 +5800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C71">
         <v>70</v>
       </c>
@@ -5835,7 +5838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C72">
         <v>71</v>
       </c>
@@ -5873,7 +5876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C73">
         <v>72</v>
       </c>
@@ -5911,7 +5914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C74">
         <v>73</v>
       </c>
@@ -5955,7 +5958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C75">
         <v>74</v>
       </c>
@@ -5993,7 +5996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C76">
         <v>75</v>
       </c>
@@ -6037,7 +6040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C77">
         <v>76</v>
       </c>
@@ -6081,7 +6084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C78">
         <v>77</v>
       </c>
@@ -6125,7 +6128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C79">
         <v>78</v>
       </c>
@@ -6163,7 +6166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C80">
         <v>79</v>
       </c>
@@ -6207,7 +6210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C81">
         <v>80</v>
       </c>
@@ -6251,7 +6254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C82">
         <v>81</v>
       </c>
@@ -6295,7 +6298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C83">
         <v>82</v>
       </c>
@@ -6339,7 +6342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C84">
         <v>83</v>
       </c>
@@ -6383,7 +6386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C85">
         <v>84</v>
       </c>
@@ -6427,7 +6430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C86">
         <v>85</v>
       </c>
@@ -6465,7 +6468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C87">
         <v>86</v>
       </c>
@@ -6503,7 +6506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C88">
         <v>87</v>
       </c>
@@ -6541,7 +6544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C89">
         <v>88</v>
       </c>
@@ -6585,7 +6588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C90">
         <v>89</v>
       </c>
@@ -6629,7 +6632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C91">
         <v>90</v>
       </c>
@@ -6673,7 +6676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C92">
         <v>91</v>
       </c>
@@ -6717,7 +6720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C93">
         <v>92</v>
       </c>
@@ -6755,7 +6758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C94">
         <v>93</v>
       </c>
@@ -6799,7 +6802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C95">
         <v>94</v>
       </c>
@@ -6843,7 +6846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C96">
         <v>95</v>
       </c>
@@ -6887,7 +6890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C97">
         <v>96</v>
       </c>
@@ -6925,7 +6928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C98">
         <v>97</v>
       </c>
@@ -6963,7 +6966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C99">
         <v>98</v>
       </c>
@@ -7007,7 +7010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C100">
         <v>99</v>
       </c>
@@ -7051,7 +7054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C101">
         <v>100</v>
       </c>
@@ -7095,7 +7098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C102">
         <v>101</v>
       </c>
@@ -7139,7 +7142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C103">
         <v>102</v>
       </c>
@@ -7183,7 +7186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C104">
         <v>103</v>
       </c>
@@ -7221,7 +7224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C105">
         <v>104</v>
       </c>
@@ -7259,7 +7262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C106">
         <v>105</v>
       </c>
@@ -7297,7 +7300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C107">
         <v>106</v>
       </c>
@@ -7335,7 +7338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C108">
         <v>107</v>
       </c>
@@ -7379,7 +7382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C109">
         <v>108</v>
       </c>
@@ -7423,7 +7426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C110">
         <v>109</v>
       </c>
@@ -7461,7 +7464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C111">
         <v>110</v>
       </c>
@@ -7505,7 +7508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C112">
         <v>111</v>
       </c>
@@ -7543,7 +7546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C113">
         <v>112</v>
       </c>
@@ -7587,7 +7590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C114">
         <v>113</v>
       </c>
@@ -7625,7 +7628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C115">
         <v>114</v>
       </c>
@@ -7669,7 +7672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C116">
         <v>115</v>
       </c>
@@ -7713,7 +7716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C117">
         <v>116</v>
       </c>
@@ -7757,7 +7760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C118">
         <v>117</v>
       </c>
@@ -7801,7 +7804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C119">
         <v>118</v>
       </c>
@@ -7839,7 +7842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C120">
         <v>119</v>
       </c>
@@ -7883,7 +7886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C121">
         <v>120</v>
       </c>
@@ -7927,7 +7930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C122">
         <v>121</v>
       </c>
@@ -7971,7 +7974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C123">
         <v>122</v>
       </c>
@@ -8009,7 +8012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C124">
         <v>123</v>
       </c>
@@ -8047,7 +8050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C125">
         <v>124</v>
       </c>
@@ -8085,7 +8088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C126">
         <v>125</v>
       </c>
@@ -8123,7 +8126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C127">
         <v>126</v>
       </c>
@@ -8161,7 +8164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C128">
         <v>127</v>
       </c>
@@ -8205,7 +8208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C129">
         <v>128</v>
       </c>
@@ -8249,7 +8252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C130">
         <v>129</v>
       </c>
@@ -8293,7 +8296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C131">
         <v>130</v>
       </c>
@@ -8331,7 +8334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C132">
         <v>131</v>
       </c>
@@ -8369,7 +8372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C133">
         <v>132</v>
       </c>
@@ -8413,7 +8416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C134">
         <v>133</v>
       </c>
@@ -8457,7 +8460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C135">
         <v>134</v>
       </c>
@@ -8495,7 +8498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C136">
         <v>135</v>
       </c>
@@ -8533,7 +8536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C137">
         <v>136</v>
       </c>
@@ -8577,7 +8580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C138">
         <v>137</v>
       </c>
@@ -8621,7 +8624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C139">
         <v>138</v>
       </c>
@@ -8665,7 +8668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C140">
         <v>139</v>
       </c>
@@ -8703,7 +8706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C141">
         <v>140</v>
       </c>
@@ -8747,7 +8750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C142">
         <v>141</v>
       </c>
@@ -8785,7 +8788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C143">
         <v>142</v>
       </c>
@@ -8829,7 +8832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C144">
         <v>143</v>
       </c>
@@ -8873,7 +8876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C145">
         <v>144</v>
       </c>
@@ -8911,7 +8914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C146">
         <v>145</v>
       </c>
@@ -8955,7 +8958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C147">
         <v>146</v>
       </c>
@@ -8993,7 +8996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C148">
         <v>147</v>
       </c>
@@ -9037,7 +9040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C149">
         <v>148</v>
       </c>
@@ -9081,7 +9084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C150">
         <v>149</v>
       </c>
@@ -9119,7 +9122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C151">
         <v>150</v>
       </c>
@@ -9157,7 +9160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C152">
         <v>151</v>
       </c>
@@ -9195,7 +9198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C153">
         <v>152</v>
       </c>
@@ -9239,7 +9242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C154">
         <v>153</v>
       </c>
@@ -9283,7 +9286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C155">
         <v>154</v>
       </c>
@@ -9321,7 +9324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C156">
         <v>155</v>
       </c>
@@ -9365,7 +9368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C157">
         <v>156</v>
       </c>
@@ -9403,7 +9406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C158">
         <v>157</v>
       </c>
@@ -9447,7 +9450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C159">
         <v>158</v>
       </c>
@@ -9491,7 +9494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C160">
         <v>159</v>
       </c>
@@ -9535,7 +9538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C161">
         <v>160</v>
       </c>
@@ -9570,7 +9573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C162">
         <v>161</v>
       </c>
@@ -9614,7 +9617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C163">
         <v>162</v>
       </c>
@@ -9652,7 +9655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C164">
         <v>163</v>
       </c>
@@ -9696,7 +9699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C165">
         <v>164</v>
       </c>
@@ -9734,7 +9737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C166">
         <v>165</v>
       </c>
@@ -9778,7 +9781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C167">
         <v>166</v>
       </c>
@@ -9822,7 +9825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C168">
         <v>167</v>
       </c>
@@ -9860,7 +9863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C169">
         <v>168</v>
       </c>
@@ -9904,7 +9907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C170">
         <v>169</v>
       </c>
@@ -9948,7 +9951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C171">
         <v>170</v>
       </c>
@@ -9992,7 +9995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C172">
         <v>171</v>
       </c>
@@ -10036,7 +10039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C173">
         <v>172</v>
       </c>
@@ -10080,7 +10083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C174">
         <v>173</v>
       </c>
@@ -10124,7 +10127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C175">
         <v>174</v>
       </c>
@@ -10168,7 +10171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C176">
         <v>175</v>
       </c>
@@ -10206,7 +10209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C177">
         <v>176</v>
       </c>
@@ -10250,7 +10253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C178">
         <v>177</v>
       </c>
@@ -10294,7 +10297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C179">
         <v>178</v>
       </c>
@@ -10332,7 +10335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C180">
         <v>179</v>
       </c>
@@ -10370,7 +10373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C181">
         <v>180</v>
       </c>
@@ -10414,7 +10417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C182">
         <v>181</v>
       </c>
@@ -10458,7 +10461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C183">
         <v>182</v>
       </c>
@@ -10496,7 +10499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C184">
         <v>183</v>
       </c>
@@ -10540,7 +10543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C185">
         <v>184</v>
       </c>
@@ -10578,7 +10581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C186">
         <v>185</v>
       </c>
@@ -10616,7 +10619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C187">
         <v>186</v>
       </c>
@@ -10660,7 +10663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C188">
         <v>187</v>
       </c>
@@ -10698,7 +10701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C189">
         <v>188</v>
       </c>
@@ -10742,7 +10745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C190">
         <v>189</v>
       </c>
@@ -10780,7 +10783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C191">
         <v>190</v>
       </c>
@@ -10824,7 +10827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C192">
         <v>191</v>
       </c>
@@ -10862,7 +10865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C193">
         <v>192</v>
       </c>
@@ -10906,7 +10909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C194">
         <v>193</v>
       </c>
@@ -10944,7 +10947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C195">
         <v>194</v>
       </c>
@@ -10988,7 +10991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C196">
         <v>195</v>
       </c>
@@ -11032,7 +11035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C197">
         <v>196</v>
       </c>
@@ -11070,7 +11073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C198">
         <v>197</v>
       </c>
@@ -11108,7 +11111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C199">
         <v>198</v>
       </c>
@@ -11146,7 +11149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C200">
         <v>199</v>
       </c>
@@ -11190,7 +11193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C201">
         <v>200</v>
       </c>
@@ -11234,7 +11237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C202">
         <v>201</v>
       </c>
@@ -11278,7 +11281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C203">
         <v>202</v>
       </c>
@@ -11322,7 +11325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C204">
         <v>203</v>
       </c>
@@ -11366,7 +11369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C205">
         <v>204</v>
       </c>
@@ -11410,7 +11413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C206">
         <v>205</v>
       </c>
@@ -11448,7 +11451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C207">
         <v>206</v>
       </c>
@@ -11492,7 +11495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C208">
         <v>207</v>
       </c>
@@ -11536,7 +11539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C209">
         <v>208</v>
       </c>
@@ -11580,7 +11583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C210">
         <v>209</v>
       </c>
@@ -11624,7 +11627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C211">
         <v>210</v>
       </c>
@@ -11662,7 +11665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C212">
         <v>211</v>
       </c>
@@ -11700,7 +11703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C213">
         <v>212</v>
       </c>
@@ -11744,7 +11747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C214">
         <v>213</v>
       </c>
@@ -11788,7 +11791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C215">
         <v>214</v>
       </c>
@@ -11832,7 +11835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C216">
         <v>215</v>
       </c>
@@ -11876,7 +11879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C217">
         <v>216</v>
       </c>
@@ -11920,7 +11923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C218">
         <v>217</v>
       </c>
@@ -11961,7 +11964,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="219" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C219">
         <v>218</v>
       </c>
@@ -11999,7 +12002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C220">
         <v>219</v>
       </c>
@@ -12037,7 +12040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C221">
         <v>220</v>
       </c>
@@ -12075,7 +12078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C222">
         <v>221</v>
       </c>
@@ -12113,7 +12116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C223">
         <v>222</v>
       </c>
@@ -12157,7 +12160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C224">
         <v>223</v>
       </c>
@@ -12195,7 +12198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C225">
         <v>224</v>
       </c>
@@ -12239,7 +12242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C226">
         <v>225</v>
       </c>
@@ -12283,7 +12286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C227">
         <v>226</v>
       </c>
@@ -12318,7 +12321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C228">
         <v>227</v>
       </c>
@@ -12362,7 +12365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C229">
         <v>228</v>
       </c>
@@ -12400,7 +12403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C230">
         <v>229</v>
       </c>
@@ -12438,7 +12441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C231">
         <v>230</v>
       </c>
@@ -12476,7 +12479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C232">
         <v>231</v>
       </c>
@@ -12514,7 +12517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C233">
         <v>232</v>
       </c>
@@ -12552,7 +12555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C234">
         <v>233</v>
       </c>
@@ -12590,7 +12593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C235">
         <v>234</v>
       </c>
@@ -12628,7 +12631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C236">
         <v>235</v>
       </c>
@@ -12672,7 +12675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C237">
         <v>236</v>
       </c>
@@ -12707,7 +12710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C238">
         <v>237</v>
       </c>
@@ -12742,7 +12745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C239">
         <v>238</v>
       </c>
@@ -12777,7 +12780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C240">
         <v>239</v>
       </c>
@@ -12812,7 +12815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>13</v>
       </c>
@@ -12853,7 +12856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>12</v>
       </c>
@@ -12894,7 +12897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>11</v>
       </c>
@@ -12935,7 +12938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>10</v>
       </c>
@@ -12976,7 +12979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>9</v>
       </c>
@@ -13017,7 +13020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>8</v>
       </c>
@@ -13058,7 +13061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>7</v>
       </c>
@@ -13099,7 +13102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>6</v>
       </c>
@@ -13140,7 +13143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>5</v>
       </c>
@@ -13181,7 +13184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>4</v>
       </c>
@@ -13222,7 +13225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>3</v>
       </c>
@@ -13254,7 +13257,7 @@
         <v>696</v>
       </c>
       <c r="N251" t="s">
-        <v>712</v>
+        <v>750</v>
       </c>
       <c r="O251" t="s">
         <v>716</v>
@@ -13263,7 +13266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>2</v>
       </c>
@@ -13295,7 +13298,7 @@
         <v>697</v>
       </c>
       <c r="N252" t="s">
-        <v>712</v>
+        <v>750</v>
       </c>
       <c r="O252" t="s">
         <v>718</v>
@@ -13304,7 +13307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1</v>
       </c>
@@ -13336,7 +13339,7 @@
         <v>698</v>
       </c>
       <c r="N253" t="s">
-        <v>712</v>
+        <v>750</v>
       </c>
       <c r="O253" t="s">
         <v>720</v>
@@ -13345,7 +13348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>0</v>
       </c>
@@ -13377,7 +13380,7 @@
         <v>699</v>
       </c>
       <c r="N254" t="s">
-        <v>712</v>
+        <v>750</v>
       </c>
       <c r="O254" t="s">
         <v>722</v>
@@ -13386,7 +13389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C255">
         <v>254</v>
       </c>
@@ -13412,7 +13415,7 @@
         <v>700</v>
       </c>
       <c r="N255" t="s">
-        <v>712</v>
+        <v>750</v>
       </c>
       <c r="O255" t="s">
         <v>723</v>
